--- a/assets/aewrn224/other/top25time.xlsx
+++ b/assets/aewrn224/other/top25time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="19960" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="13940" yWindow="10420" windowWidth="19720" windowHeight="18460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="webcaspar_table20150402190051.c" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>Year: All values</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Academic Institution (survey-specific): Brown University, California Institute of Technology, Carnegie Mellon University, Columbia University in the City of New York, Cornell University, Duke University, Harvard University, Johns Hopkins University, Massachusetts Institute of Technology, New York University, Rice University, Stanford University, University of California Berkeley, University of California Los Angeles, University of California San Diego, University of Illinois at Urbana Champaign, University of Massachusetts Amherst, University of Pennsylvania, University of Rochester, University of Southern California, University of Texas at Austin, University of Washington Seattle Campus, University of Wisconsin Madison, Yale University</t>
+  </si>
+  <si>
+    <t>Shanghai 2014</t>
+  </si>
+  <si>
+    <t>US News 2014</t>
   </si>
 </sst>
 </file>
@@ -930,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -981,6 +987,9 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
@@ -2492,6 +2501,11 @@
       </c>
       <c r="H66" s="1">
         <v>1881</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2510,7 +2524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:C35"/>
     </sheetView>
   </sheetViews>
@@ -2876,7 +2890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:C35"/>
     </sheetView>
   </sheetViews>
